--- a/准专家用户数据.xlsx
+++ b/准专家用户数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CSDN\2016\SPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\prototypes\sps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="238">
   <si>
     <t>{</t>
   </si>
@@ -194,347 +194,650 @@
     <t xml:space="preserve">            "type": "string"</t>
   </si>
   <si>
+    <t xml:space="preserve">              "level": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "score_type": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "contact_status": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "contact_type": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "contact_value": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "contribution_degree_withkeyword": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "country": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "csdn_id": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "cur_company": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "cur_job": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "district": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "edu": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "degree": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "edu_end_date": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "edu_start_date": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "edu_status": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "major_str": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "school_name": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "edu_degree_code": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "admin_remark": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "experience": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "introduce": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "is_deleted": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "passed_at": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "recommend_desc": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "tags": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "gender": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "id": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "industry_type": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "interest": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "interest_name": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "interest_status": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "invitation_status": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "is_expert": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "last_update_date": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "lib_editor": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "base_id": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "introduction": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "operator": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "status": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "login_email": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "main_mobile": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "province": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "real_name": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "self_desc": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "skill": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "skill_level": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "skill_name": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "skill_status": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "work": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "job": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "org_name": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "work_begin_date": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "work_desc": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "work_end_date": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              "work_status": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSDN ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问答导师</t>
+  </si>
+  <si>
+    <t>热心人</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>问答关键词积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问答无关键词积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛版主</t>
+  </si>
+  <si>
+    <t>问答导师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛创建时间</t>
+  </si>
+  <si>
+    <t>论坛介绍</t>
+  </si>
+  <si>
+    <t>论坛id</t>
+  </si>
+  <si>
+    <t>论坛名称</t>
+  </si>
+  <si>
+    <t>论坛无关键词积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛有关键词积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词对应积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词对应积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          "blog_expert_detail": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加人</t>
+  </si>
+  <si>
+    <t>添加人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客id</t>
+  </si>
+  <si>
+    <t>博客状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客创建时间</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>是否为推荐专家[出现在首页]</t>
+  </si>
+  <si>
+    <t>推荐人</t>
+  </si>
+  <si>
+    <t>博客副标题</t>
+  </si>
+  <si>
+    <t>擅长</t>
+  </si>
+  <si>
+    <t>博客标题</t>
+  </si>
+  <si>
+    <t>无关键词质量分10分以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无关键词质量分15分以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无关键词质量分7分以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定关键词质量分10以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定关键词质量分15以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定关键词质量分7以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">          "community_level": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "level": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "score_type": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">          "contact": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "contact_status": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "contact_type": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "contact_value": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "contribution_degree_withkeyword": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "country": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">public static int[] levelBlog = {1,100,500,1000,2000,5000,10000,30000,50000,100000,200000,300000,500000,800000,1000000};//blog等级(1-15)对应分值,类型：300
+public static int[] levelBbs = {1,100,500,1000,2000,5000,10000,30000,50000,100000,200000,300000,500000,800000,1000000};//bbs等级(1-15)对应分值,类型：201
+public static int[] levelDownload = {1,100,500,1000,2000,5000,10000,30000,50000,100000,200000,300000,500000,800000,1000000};//下载等级(1-15)对应分值,类型：400
+public static int[] levelAsk = {0,10,50,120,200,300,500,800,1200,1800,3000,5000,8000,12000,18000,30000,60000,100000,200000,400000};//问答等级(1-20)对应分值,类型：700
+public static int[] levelGeek = {0,51,101,201,501,1001,2001,4001,8001,15001};//极客头条等级(1-10)对应分值,类型：800
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(类型60 qq,100 微信号)</t>
+  </si>
+  <si>
+    <t>微信号/QQ号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词用户贡献度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献度得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">          "create_date": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "csdn_id": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "cur_company": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "cur_job": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "district": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "edu": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "degree": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "edu_end_date": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "edu_start_date": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "edu_status": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "major_str": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "school_name": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "edu_degree_code": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册试间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历等级</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所学专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">          "edu_teacher": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "admin_remark": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "experience": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "introduce": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "is_deleted": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "passed_at": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "recommend_desc": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "tags": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "gender": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院讲师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲师描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训经历</t>
+  </si>
+  <si>
+    <t>讲师简介</t>
+  </si>
+  <si>
+    <t>是否删除1是 2否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否推荐  1推荐 2不推荐</t>
+  </si>
+  <si>
+    <t>讲师审核通过的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲师推荐语</t>
+  </si>
+  <si>
+    <t>讲师擅长标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别男1女2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">          "graduate_school": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "id": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "industry_type": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "interest": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "interest_name": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "interest_status": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "invitation_status": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "is_expert": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "last_update_date": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "lib_editor": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "base_id": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "introduction": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "operator": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "status": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "login_email": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "main_mobile": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "province": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "real_name": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "self_desc": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "skill": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "skill_level": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "skill_name": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "skill_status": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "work": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "job": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "org_name": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "work_begin_date": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "work_desc": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "work_end_date": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "work_status": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  }</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDN ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问答导师</t>
-  </si>
-  <si>
-    <t>热心人</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>问答关键词积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问答无关键词积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键词内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论坛版主</t>
-  </si>
-  <si>
-    <t>问答导师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论坛创建时间</t>
-  </si>
-  <si>
-    <t>论坛介绍</t>
-  </si>
-  <si>
-    <t>论坛id</t>
-  </si>
-  <si>
-    <t>论坛名称</t>
-  </si>
-  <si>
-    <t>论坛无关键词积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论坛有关键词积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键词对应积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键词对应积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">          "blog_expert_detail": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客专家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加人</t>
-  </si>
-  <si>
-    <t>添加人id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客id</t>
-  </si>
-  <si>
-    <t>博客状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客创建时间</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>是否为推荐专家[出现在首页]</t>
-  </si>
-  <si>
-    <t>推荐人</t>
-  </si>
-  <si>
-    <t>博客副标题</t>
-  </si>
-  <si>
-    <t>擅长</t>
-  </si>
-  <si>
-    <t>博客标题</t>
-  </si>
-  <si>
-    <t>博客文章质量分10分以上文章数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客文章质量分15分以上文章数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客文章质量分7分以上文章数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业院校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSDN 自增长ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感兴趣领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感兴趣领域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家邀请状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为专家库专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库特邀编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续增加了知识库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经历</t>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,8 +861,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,8 +892,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -581,22 +911,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="输出" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -874,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C415"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -886,18 +1251,21 @@
     <col min="3" max="3" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -905,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -913,87 +1281,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1011,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1044,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1062,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1080,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1088,2006 +1459,2348 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+    <row r="74" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C74" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>28</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
         <v>44</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
         <v>45</v>
       </c>
       <c r="C115" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
         <v>47</v>
       </c>
       <c r="C123" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>49</v>
       </c>
       <c r="C126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>50</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C144" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C147" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C149" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C152" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C156" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C159" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C161" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B168" t="s">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B168" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C168" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B171" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="C174" t="s">
+        <v>167</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C177" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="C180" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C184" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B190" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="C192" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="C195" t="s">
+        <v>174</v>
+      </c>
+      <c r="D195" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C199" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B203" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C206" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C208" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C211" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B215" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B215" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B218" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B218" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B222" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B222" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B225" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B225" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B228" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B228" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B231" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B231" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B234" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B234" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B236" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="C236" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="C239" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B242" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="C243" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="C247" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="C250" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B253" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="C253" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B256" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B258" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B258" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B259" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B261" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B261" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B263" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="C263" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C266" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B267" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C270" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B271" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B273" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+      <c r="C273" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="C276" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B278" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+      <c r="C279" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C282" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B285" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+      <c r="C285" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B287" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B289" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="C289" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B292" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="C292" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B293" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C295" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B299" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B301" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B301" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B304" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B304" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B305" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B307" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B307" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B309" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B310" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B310" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B311" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B313" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B313" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B314" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="C315" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="C318" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B323" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B323" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B326" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B326" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B328" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B329" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B329" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B330" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B333" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B333" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B336" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="C336" t="s">
+        <v>217</v>
+      </c>
+      <c r="D336" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C340" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="C343" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="C346" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B349" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B350" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+      <c r="C350" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B351" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B352" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C353" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B354" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B356" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B359" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B359" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B360" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B361" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B362" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B362" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B365" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B365" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B366" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B368" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B368" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B371" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B371" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B372" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B373" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B374" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B374" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="C376" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B378" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="C379" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B381" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="C382" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B384" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B387" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:4" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B387" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B388" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="C389" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C392" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B393" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="C395" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B396" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B397" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="C399" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B402" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="C402" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B403" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B404" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="C406" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B408" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B409" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:3" collapsed="1" x14ac:dyDescent="0.15">
       <c r="B410" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B411" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B412" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B413" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B414" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B415" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B411" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B412" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B413" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B414" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B415" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
